--- a/medicine/Psychotrope/Mencia/Mencia.xlsx
+++ b/medicine/Psychotrope/Mencia/Mencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le mencia, ou mencía, est un cépage rouge autochtone du nord-ouest de la péninsule ibérique.
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mencia provient principalement du nord-ouest de la péninsule ibérique où il est introduit et cultivé depuis la Rome antique. Des cultures importantes se trouvent au Portugal, dans la région du Dão où le cépage serait apparu vers le milieu du XIVe siècle après avoir été apporté d'Aquitaine par les pèlerins venant à Saint-Jacques-de-Compostelle.
 Depuis les années 1990, il a gagné en popularité et un nombre croissant de vignerons espagnols réputés travaillent actuellement avec ce cépage. La découverte de son potentiel sur les sites les plus exigeants a contribué à cette évolution.
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété produit des grappes compactes petites à moyennes, cylindro-coniques, ailées avec des baies de taille petite à moyenne de forme ellipsoïdale, de section régulière et avec une peau épaisse d'un beau noir bleuté très pruinée et une pulpe juteuse à saveur neutre.
 Les pédoncules sont moyennement forts avec très souvent une partie supérieure lignifiée.
@@ -580,7 +596,9 @@
           <t>Zones de culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété est cultivée essentiellement en Espagne et au Portugal.
 En Espagne, le mencia est un cépage traditionnel de la région de Bierzo où il est principalement implanté. On le trouve aussi entre autres dans les appellations de Monterrei, Rias Baixas, Ribeira Sacra, Ribeiro et Valdeorras en Galice. Il occupe la neuvième place des cépages les plus cultivés en Espagne avec plus de 11 330 hectares de vignes.
@@ -613,9 +631,11 @@
           <t>Relation avec d'autres cépages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On pensait autrefois qu’il s’agissait d’un clone du cabernet franc, avec lequel il partage certains de ses arômes, mais des analyses d'ADN effectuées en Espagne par le Département de Biologie Végétale de l'Universidad Politécnica de Madrid ont montré qu'il était un clone du Jaen (ou Jaen du Dão). D'autres analyses ont permis de déterminer que le cépage est probablement originaire du Portugal, car il résulte d'un croisement entre l'Alfrocheiro (en) et le Patorra, deux cépages rouges portugais respectivement des régions du Dão et du Douro[1],[2]. Les clones portugais et espagnols diffèrent néanmoins par la taille et la fécondité des fruits.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On pensait autrefois qu’il s’agissait d’un clone du cabernet franc, avec lequel il partage certains de ses arômes, mais des analyses d'ADN effectuées en Espagne par le Département de Biologie Végétale de l'Universidad Politécnica de Madrid ont montré qu'il était un clone du Jaen (ou Jaen du Dão). D'autres analyses ont permis de déterminer que le cépage est probablement originaire du Portugal, car il résulte d'un croisement entre l'Alfrocheiro (en) et le Patorra, deux cépages rouges portugais respectivement des régions du Dão et du Douro,. Les clones portugais et espagnols diffèrent néanmoins par la taille et la fécondité des fruits.
 </t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mencia donne des vins typés possédant des arômes délicats de fruits rouges (fraise, framboise, grenade, myrtille, mûre, cerise, etc.) et, dans le cas de vins issus de vieilles vignes, des notes minérales caractéristiques. Ces arômes de fruits rouges sont dus à une teneur élevée en terpénoïdes qui caractérise ce cépage. Selon la composition du sol où elle est cultivée, la variété peut avoir des caractéristiques différentes. Dans les sols argileux, les vins ont un caractère plus terreux, tandis que dans les sols composés de granite et de schiste, ils sont plus minéraux.
 Ils sont riches en alcool, d'une belle couleur rubis brillant, avec des tanins souples et veloutés et une bonne aptitude à vieillir. Mais le cépage est également recommandé pour produire des vins destinés à être bus jeunes ou de légers rosés aromatiques, fruités et doux. Il mûrit tôt et convient bien au climat maritime où les pluies d'automne sont assez fréquentes. Il peut perdre rapidement son acidité naturelle et atteindre des niveaux d'alcool indésirables s'il est récolté trop tard. Ses teneurs élevées en alcool et en acidité doivent être bien maîtrisées afin de préserver l'équilibre du vin.
@@ -678,9 +700,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le synonyme de base est jaen, le nom utilisé principalement au Portugal[3]. Les autres synonymes sont[3] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le synonyme de base est jaen, le nom utilisé principalement au Portugal. Les autres synonymes sont :
 De Nera
 Fernao Pires Tinta
 Giao
